--- a/ESCENARIOS_SPRINT_1.xlsx
+++ b/ESCENARIOS_SPRINT_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Escritorio\DOCUMENTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B9BF66-F165-4EC2-84C0-698457FCEA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD9F28F-AFF0-424B-99D7-B727CAEC63AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B7820C9-1337-432C-A296-D62D7456F78F}"/>
   </bookViews>
@@ -45,103 +45,52 @@
     <t>ESCENARIOS</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
     <t>Cita interna de Instalación flota, con un solo producto</t>
   </si>
   <si>
-    <t>E2</t>
-  </si>
-  <si>
     <t>Cita externa de Instalación básica, con un solo producto</t>
   </si>
   <si>
-    <t>E3</t>
-  </si>
-  <si>
     <t>Cita externa de Instalación, pero no existe vehículo.</t>
   </si>
   <si>
-    <t>E4</t>
-  </si>
-  <si>
     <t>Cita interna de Instalación flota, con mas de un producto</t>
   </si>
   <si>
-    <t>E5</t>
-  </si>
-  <si>
     <t>Cita externa de Instalación básica, con mas de un producto</t>
   </si>
   <si>
-    <t>E6</t>
-  </si>
-  <si>
     <t>Cita externa de Instalación con servicio flota, con equipos sin producto</t>
   </si>
   <si>
-    <t>E7</t>
-  </si>
-  <si>
     <t>Cita interna de Instalación básico, solo con artículos, sin equipo y producto.</t>
   </si>
   <si>
-    <t>E8</t>
-  </si>
-  <si>
     <t>Cita interna de Instalación flota, solo con un equipo, sin producto y articulo.</t>
   </si>
   <si>
-    <t>E9</t>
-  </si>
-  <si>
     <t>Cita externa de Instalación con servicio básico, con más de un equipo</t>
   </si>
   <si>
-    <t>E10</t>
-  </si>
-  <si>
     <t>Cita externa de Instalación, con un solo producto, sin servicio básico y flota.</t>
   </si>
   <si>
-    <t>E11</t>
-  </si>
-  <si>
     <t>Cita interna de instalación, sin servicio básico con equipo y accesorios, con línea cerrada</t>
   </si>
   <si>
-    <t>E12</t>
-  </si>
-  <si>
     <t>Cita interna de instalación, con servicio básico, con equipo, productos y artículos y línea cerrada.</t>
   </si>
   <si>
-    <t>E13</t>
-  </si>
-  <si>
     <t>Cita interna de instalación, con servicio flota, con equipo, productos y artículos y línea cerrada.</t>
   </si>
   <si>
-    <t>E14</t>
-  </si>
-  <si>
     <t>Cita interna de instalación, con servicio básico, con equipo, productos y artículos y línea abierta</t>
   </si>
   <si>
-    <t>E15</t>
-  </si>
-  <si>
     <t>Registro de vehículo individual</t>
   </si>
   <si>
-    <t>E16</t>
-  </si>
-  <si>
     <t>Registro de vehículo masivo</t>
-  </si>
-  <si>
-    <t>E17</t>
   </si>
   <si>
     <r>
@@ -162,80 +111,131 @@
     </r>
   </si>
   <si>
-    <t>E18</t>
-  </si>
-  <si>
     <t>Editar de vehículo individual</t>
   </si>
   <si>
-    <t>E19</t>
-  </si>
-  <si>
     <t>Editar de vehículo masivo</t>
   </si>
   <si>
-    <t>E20</t>
-  </si>
-  <si>
     <t>Registro no exitoso de vehículo individual</t>
   </si>
   <si>
-    <t>E21</t>
-  </si>
-  <si>
     <t>Registro no exitoso de vehículo masivo</t>
   </si>
   <si>
-    <t>E22</t>
-  </si>
-  <si>
     <t>Registrar solicitud de instalación con datos del cliente desde CRM y datos de vehículo</t>
   </si>
   <si>
-    <t>E23</t>
-  </si>
-  <si>
     <t>Registrar solicitud de instalación con datos del cliente desde CRM, datos de vehículo y agregar nuevos accesorios</t>
   </si>
   <si>
-    <t>E24</t>
-  </si>
-  <si>
     <t>Falla en la integración entre CRM y SIGO</t>
   </si>
   <si>
-    <t>E37</t>
-  </si>
-  <si>
     <t>No existe una OV asociado a dicho vehículo</t>
   </si>
   <si>
-    <t>E38</t>
-  </si>
-  <si>
     <t>Cita externa de instalación, con servicio básico, con equipo, productos y artículos y línea abierta, campo obligatorio no registrado</t>
   </si>
   <si>
-    <t>E39</t>
-  </si>
-  <si>
     <t>Cita interna de instalación, con servicio básico, con equipo, productos y artículos. No asociada a un OV.</t>
   </si>
   <si>
-    <t>E40</t>
-  </si>
-  <si>
     <t>Cita interna de instalación, con servicio básico, vehículo asociado no cuenta con credenciales generadas.</t>
   </si>
   <si>
     <t>CÓDIGO</t>
+  </si>
+  <si>
+    <t>US1</t>
+  </si>
+  <si>
+    <t>US2</t>
+  </si>
+  <si>
+    <t>US3</t>
+  </si>
+  <si>
+    <t>US4</t>
+  </si>
+  <si>
+    <t>US5</t>
+  </si>
+  <si>
+    <t>US6</t>
+  </si>
+  <si>
+    <t>US7</t>
+  </si>
+  <si>
+    <t>US8</t>
+  </si>
+  <si>
+    <t>US9</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>US28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +275,12 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -375,14 +381,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -397,6 +395,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B10E38-1F38-48DB-9842-2DC4E303D668}">
   <dimension ref="B2:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,248 +729,248 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="C33" s="5" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -972,6 +978,7 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:C4"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>